--- a/Experimentos/MOORA.xlsx
+++ b/Experimentos/MOORA.xlsx
@@ -41,13 +41,13 @@
     <t>MOORA</t>
   </si>
   <si>
-    <t>18:10:28.794320</t>
-  </si>
-  <si>
-    <t>18:10:28.870826</t>
-  </si>
-  <si>
-    <t>0:00:00.076506</t>
+    <t>11:14:41.444529</t>
+  </si>
+  <si>
+    <t>11:14:41.554284</t>
+  </si>
+  <si>
+    <t>0:00:00.109755</t>
   </si>
   <si>
     <t>Puntuación Global</t>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
